--- a/medicine/Enfance/Marc_Boutavant/Marc_Boutavant.xlsx
+++ b/medicine/Enfance/Marc_Boutavant/Marc_Boutavant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Marc Boutavant,  né le 12 juillet 1970 à Dijon[1], est un illustrateur et auteur de littérature de jeunesse et de bandes dessinées français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marc Boutavant,  né le 12 juillet 1970 à Dijon, est un illustrateur et auteur de littérature de jeunesse et de bandes dessinées français.
 </t>
         </is>
       </c>
@@ -511,15 +523,17 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il fait des études en communication visuelle avant de travailler pour l'édition jeunesse, la bande dessinée et le graphisme[2].
-Sa première publication est réalisée en 1999 pour Actes Sud junior dans la série « À petits pas » où il illustre Le soleil à petits pas de Michèle Mira Pons. L'année suivante il réalise dans la même série l'illustration de L'écologie à petits pas écrit par François Michel. Puis il est appelé par Gérard Lo Monaco pour un livre de comptines chez Albin Michel jeunesse. Celui-ci avait été séduit par le programme de la Guinguette pirate que Marc Boutavant réalisait depuis sept ans pour ce bateau-café-concert[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il fait des études en communication visuelle avant de travailler pour l'édition jeunesse, la bande dessinée et le graphisme.
+Sa première publication est réalisée en 1999 pour Actes Sud junior dans la série « À petits pas » où il illustre Le soleil à petits pas de Michèle Mira Pons. L'année suivante il réalise dans la même série l'illustration de L'écologie à petits pas écrit par François Michel. Puis il est appelé par Gérard Lo Monaco pour un livre de comptines chez Albin Michel jeunesse. Celui-ci avait été séduit par le programme de la Guinguette pirate que Marc Boutavant réalisait depuis sept ans pour ce bateau-café-concert.
 Il a publié plusieurs livres jeunesse aux éditions Albin Michel, Actes Sud junior, Nathan, Seuil jeunesse, Bayard Jeunesse et Mila Éditions.
-En 2002, il crée son propre univers animal avec la série Mouk, une série de livres pour enfants aux Éditions Mila puis aux éditions Albin Michel jeunesse à partir de 2007 avec Le Tour du monde de Mouk. « C'est vaguement un ours. Je ne veux pas que l'on reconnaisse l'animal, mais plutôt ce qui s'en dégage » précise-t-il au début de la série[3].
-Avec Emmanuel Guibert, il est également l'auteur de la série Ariol et ses amis dans J'aime lire, du groupe Bayard Presse. Avec Béatrice Fontanel, il a créé le personnage Bogueugueu[2]. En 2013, il crée, avec Colas Gutman, le personnage de la série Chien Pourri publiée dans la collection mouche à L'École des loisirs[4].
-Marc Boutavant a fait partie des auteurs de l'« Atelier des Vosges/Atelier Nawak », avec Émile Bravo, Lewis Trondheim, Christophe Blain, David B., Joann Sfar, Frédéric Boilet, Marjane Satrapi... Depuis 2000, il est représenté par « Heart Agency », une agence d'illustrateurs basée à Londres et New York[5].
-En 2024, il est sélectionné pour la troisième année d'affilée pour le prestigieux prix suédois, le Prix commémoratif Astrid-Lindgren[6].
+En 2002, il crée son propre univers animal avec la série Mouk, une série de livres pour enfants aux Éditions Mila puis aux éditions Albin Michel jeunesse à partir de 2007 avec Le Tour du monde de Mouk. « C'est vaguement un ours. Je ne veux pas que l'on reconnaisse l'animal, mais plutôt ce qui s'en dégage » précise-t-il au début de la série.
+Avec Emmanuel Guibert, il est également l'auteur de la série Ariol et ses amis dans J'aime lire, du groupe Bayard Presse. Avec Béatrice Fontanel, il a créé le personnage Bogueugueu. En 2013, il crée, avec Colas Gutman, le personnage de la série Chien Pourri publiée dans la collection mouche à L'École des loisirs.
+Marc Boutavant a fait partie des auteurs de l'« Atelier des Vosges/Atelier Nawak », avec Émile Bravo, Lewis Trondheim, Christophe Blain, David B., Joann Sfar, Frédéric Boilet, Marjane Satrapi... Depuis 2000, il est représenté par « Heart Agency », une agence d'illustrateurs basée à Londres et New York.
+En 2024, il est sélectionné pour la troisième année d'affilée pour le prestigieux prix suédois, le Prix commémoratif Astrid-Lindgren.
 </t>
         </is>
       </c>
@@ -548,9 +562,11 @@
           <t>Techniques graphiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Marc Boutavant a commencé par travailler à l'acrylique au pinceau, avant de se tourner rapidement vers l'ordinateur avec Photoshop. Il dit mieux pouvoir exprimer ce qui se passe dans sa tête et mieux contrôler le rendu pour l'impression[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marc Boutavant a commencé par travailler à l'acrylique au pinceau, avant de se tourner rapidement vers l'ordinateur avec Photoshop. Il dit mieux pouvoir exprimer ce qui se passe dans sa tête et mieux contrôler le rendu pour l'impression.
 </t>
         </is>
       </c>
@@ -579,13 +595,15 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2019 :  Prix Micheluzzi jeunes lecteurs[7] pour Ariol t. 1-2, scénario de Emmanuel Guibert
-2020 :  « Mention » au Prix BolognaRagazzi, catégorie Comics - Early Reader[8], Foire du livre de jeunesse de Bologne  pour Ariol, tome 15 : Touche pas à mon veau, scénario d'Emmanuel Guibert
-2021 : Coup de cœur Jeune Public automne de l'Académie Charles-Cros avec Pascal Parisot[9] pour Superchat. À la recherche du paon perdu, texte, paroles, musique, interprétation de Pascal Parisot, illustrations de Marc Boutavant
-2022 : prix La Grande Ourse du Salon du livre et de la presse jeunesse pour l'ensemble de son œuvre[10]
-2022, 2023 et 2024 :  Sélection pour le Prix commémoratif Astrid-Lindgren[6]</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2019 :  Prix Micheluzzi jeunes lecteurs pour Ariol t. 1-2, scénario de Emmanuel Guibert
+2020 :  « Mention » au Prix BolognaRagazzi, catégorie Comics - Early Reader, Foire du livre de jeunesse de Bologne  pour Ariol, tome 15 : Touche pas à mon veau, scénario d'Emmanuel Guibert
+2021 : Coup de cœur Jeune Public automne de l'Académie Charles-Cros avec Pascal Parisot pour Superchat. À la recherche du paon perdu, texte, paroles, musique, interprétation de Pascal Parisot, illustrations de Marc Boutavant
+2022 : prix La Grande Ourse du Salon du livre et de la presse jeunesse pour l'ensemble de son œuvre
+2022, 2023 et 2024 :  Sélection pour le Prix commémoratif Astrid-Lindgren</t>
         </is>
       </c>
     </row>
@@ -615,17 +633,56 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Auteur et illustrateur
-2001 : Boule de poils et mon canard (Seuil)
+          <t>Auteur et illustrateur</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2001 : Boule de poils et mon canard (Seuil)
 2002 :  Mouk aux petits entre (Mila éditions)
 2002 : Mouk véli vélo (Mila éditions)
 2002 : Mouk s'ennuie un peu… (Mila éditions)
 2002 : Mouk s'habille (Mila éditions)
 2007 : Le tour du monde de Mouk en vélo en gommettes (Albin Michel jeunesse)
 2008 : N (L'édune)
-2014 : Mon livre d'activités pour découvrir le monde avec Mouk (Albin Michel jeunesse)
-Illustrateur
-Avec Emmanuel Guibert
+2014 : Mon livre d'activités pour découvrir le monde avec Mouk (Albin Michel jeunesse)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Marc_Boutavant</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marc_Boutavant</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Illustrateur</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avec Emmanuel Guibert
 2001 : Joyeux Ramono
 2002 : Le Jeu idiot de Ramono
 2002 : Ariol. Debout ! (Bayard Jeunesse, Coll. J'aime Lire BD)
@@ -675,7 +732,7 @@
 2001 : Fantômes de maisons, texte de Sonia Goldie (Mila Boutan)
 2002 : Le triangle de bermuda, texte de Michael Leblond (Lito)
 2002 : Sorcière pour un soir, texte d'Emmanuel Tredez (Nathan)
-2002 : La Grève de la vie, texte d'Amélie Couture (Actes Sud Junior) Prix Chronos CM1-CM2 2003[11]
+2002 : La Grève de la vie, texte d'Amélie Couture (Actes Sud Junior) Prix Chronos CM1-CM2 2003
 2003 : L'Histoire du soir, texte de Reginald Barthuts et Philippe Tomine (Flammarion)
 2003 : La forêt, texte d'Agnès Van de Wiele (Larousse)
 2003 : Le popotin de l'hippopo, texte de Didier Lévy (Albin Michel jeunesse, coll. Zéphyr)
@@ -697,39 +754,41 @@
 2015 : Ne chatouille jamais un tigre, texte de Pamela Butchart (Nathan)
 2017 : Premier Soleil, avec Hélène Riff (Albin Michel)
 2021 : Superchat : à la recherche du paon perdu, une histoire écrite, composée, jouée, enregistrée et racontée par Pascal Parisot (Didier jeunesse)
-2023 : La fin de Velvet[12], texte de Nastasia Rugani, coll. « Mouche », L'École des loisirs, 2023
+2023 : La fin de Velvet, texte de Nastasia Rugani, coll. « Mouche », L'École des loisirs, 2023
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Marc_Boutavant</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Marc_Boutavant</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Adaptations</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2009, Ariol a fait l'objet d'une adaptation pour la télévision. Le studio d'animation Folimage à Valence coproduit et réalise la série (78 × 4 minutes) avec une société de production canadienne : Divertissement Subséquence. La réalisation fut confiée à Émilie Sengelin et Amandine Fredon. TF1 programme la série dès le 16 novembre 2009, tout comme la chaîne spécialisée Télétoon+. Valérie Baranski en est la « scriptdoctor » ; pour la partie graphique, Marc Boutavant a été aidé par Émilie Van Lient[13].
-En 2011, c'est au tour de Mouk d'être adapté pour la télévision par le studio d'animation Millimages[14]. Réalisée par François Narboux, la série (104 x 11 minutes) est diffusée depuis le 19 septembre 2011 sur Disney Junior et France 5.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2009, Ariol a fait l'objet d'une adaptation pour la télévision. Le studio d'animation Folimage à Valence coproduit et réalise la série (78 × 4 minutes) avec une société de production canadienne : Divertissement Subséquence. La réalisation fut confiée à Émilie Sengelin et Amandine Fredon. TF1 programme la série dès le 16 novembre 2009, tout comme la chaîne spécialisée Télétoon+. Valérie Baranski en est la « scriptdoctor » ; pour la partie graphique, Marc Boutavant a été aidé par Émilie Van Lient.
+En 2011, c'est au tour de Mouk d'être adapté pour la télévision par le studio d'animation Millimages. Réalisée par François Narboux, la série (104 x 11 minutes) est diffusée depuis le 19 septembre 2011 sur Disney Junior et France 5.
 En 2019, Chien Pourri fait aussi l'objet d'une adaptation franco-belge en série animée pour la télévision. La première saison compte 52 épisodes de 13 minutes. Elle est diffusée quotidiennement sur La Une (RTBF).
 En 2022, Edmond et ses Amis est adapté pour la télévision par le studio d'animation MIAM ! animation. Réalisée par François Narboux, la série (52 x 11 minutes) est diffusée depuis le 2 septembre 2022 sur France 5.
 </t>
